--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +528,235 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>335.6132</v>
+      </c>
+      <c r="H2">
+        <v>1006.8396</v>
+      </c>
+      <c r="I2">
+        <v>0.80464917790985</v>
+      </c>
+      <c r="J2">
+        <v>0.80464917790985</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>114.5606336666667</v>
+      </c>
+      <c r="N2">
+        <v>343.681901</v>
+      </c>
+      <c r="O2">
+        <v>0.7368570786832789</v>
+      </c>
+      <c r="P2">
+        <v>0.736857078683279</v>
+      </c>
+      <c r="Q2">
+        <v>38448.06085889773</v>
+      </c>
+      <c r="R2">
+        <v>346032.5477300796</v>
+      </c>
+      <c r="S2">
+        <v>0.592911442599554</v>
+      </c>
+      <c r="T2">
+        <v>0.5929114425995541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>81.10211684848559</v>
-      </c>
-      <c r="H2">
-        <v>81.10211684848559</v>
-      </c>
-      <c r="I2">
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>335.6132</v>
+      </c>
+      <c r="H3">
+        <v>1006.8396</v>
+      </c>
+      <c r="I3">
+        <v>0.80464917790985</v>
+      </c>
+      <c r="J3">
+        <v>0.80464917790985</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="M3">
+        <v>40.91135266666667</v>
+      </c>
+      <c r="N3">
+        <v>122.734058</v>
+      </c>
+      <c r="O3">
+        <v>0.263142921316721</v>
+      </c>
+      <c r="P3">
+        <v>0.2631429213167211</v>
+      </c>
+      <c r="Q3">
+        <v>13730.38998478853</v>
+      </c>
+      <c r="R3">
+        <v>123573.5098630968</v>
+      </c>
+      <c r="S3">
+        <v>0.2117377353102959</v>
+      </c>
+      <c r="T3">
+        <v>0.211737735310296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="G4">
+        <v>81.47937800000001</v>
+      </c>
+      <c r="H4">
+        <v>244.438134</v>
+      </c>
+      <c r="I4">
+        <v>0.19535082209015</v>
+      </c>
+      <c r="J4">
+        <v>0.19535082209015</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>114.5606336666667</v>
+      </c>
+      <c r="N4">
+        <v>343.681901</v>
+      </c>
+      <c r="O4">
+        <v>0.7368570786832789</v>
+      </c>
+      <c r="P4">
+        <v>0.736857078683279</v>
+      </c>
+      <c r="Q4">
+        <v>9334.329174445862</v>
+      </c>
+      <c r="R4">
+        <v>84008.96257001275</v>
+      </c>
+      <c r="S4">
+        <v>0.1439456360837249</v>
+      </c>
+      <c r="T4">
+        <v>0.1439456360837249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="G5">
+        <v>81.47937800000001</v>
+      </c>
+      <c r="H5">
+        <v>244.438134</v>
+      </c>
+      <c r="I5">
+        <v>0.19535082209015</v>
+      </c>
+      <c r="J5">
+        <v>0.19535082209015</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>17.6443713557702</v>
-      </c>
-      <c r="N2">
-        <v>17.6443713557702</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1430.995867413747</v>
-      </c>
-      <c r="R2">
-        <v>1430.995867413747</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="M5">
+        <v>40.91135266666667</v>
+      </c>
+      <c r="N5">
+        <v>122.734058</v>
+      </c>
+      <c r="O5">
+        <v>0.263142921316721</v>
+      </c>
+      <c r="P5">
+        <v>0.2631429213167211</v>
+      </c>
+      <c r="Q5">
+        <v>3333.431568418642</v>
+      </c>
+      <c r="R5">
+        <v>30000.88411576777</v>
+      </c>
+      <c r="S5">
+        <v>0.05140518600642511</v>
+      </c>
+      <c r="T5">
+        <v>0.05140518600642511</v>
       </c>
     </row>
   </sheetData>
